--- a/matlab/Daten_FJ.XLSX
+++ b/matlab/Daten_FJ.XLSX
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>timestamp</t>
   </si>
@@ -4734,7 +4734,7 @@
   <dimension ref="A3:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="2" sqref="A1:A1048576 C1:C1048576 D1:D1048576"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,6 +4742,7 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5064,6 +5065,9 @@
       <c r="D19">
         <v>6421.05</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="F19" s="5">
         <v>0.4604166666666667</v>
       </c>
@@ -5099,6 +5103,9 @@
       <c r="D20">
         <v>6320.54</v>
       </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
       <c r="F20" s="5">
         <v>0.48125000000000001</v>
       </c>
@@ -5134,6 +5141,9 @@
       <c r="D21">
         <v>6568.98</v>
       </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
       <c r="F21" s="5">
         <v>0.50208333333333299</v>
       </c>
@@ -5169,6 +5179,9 @@
       <c r="D22">
         <v>6950.24</v>
       </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
       <c r="F22" s="5">
         <v>0.52291666666666703</v>
       </c>
@@ -5204,6 +5217,9 @@
       <c r="D23">
         <v>7272.46</v>
       </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
       <c r="F23" s="5">
         <v>0.53333333333333333</v>
       </c>
@@ -5239,6 +5255,9 @@
       <c r="D24">
         <v>7531.43</v>
       </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
       <c r="F24" s="5">
         <v>0.5541666666666667</v>
       </c>
@@ -5253,7 +5272,9 @@
       <c r="J24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L24" s="2" t="s">
         <v>28</v>
       </c>
@@ -5272,6 +5293,9 @@
       <c r="D25">
         <v>7897.04</v>
       </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
       <c r="F25" s="5">
         <v>0.57499999999999996</v>
       </c>
@@ -5307,6 +5331,9 @@
       <c r="D26">
         <v>8283.4</v>
       </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
       <c r="F26" s="5">
         <v>0.59583333333333299</v>
       </c>
@@ -5315,12 +5342,18 @@
         <v>1.0416666666667074E-2</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -5336,6 +5369,9 @@
       <c r="D27">
         <v>8682.0499999999993</v>
       </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
       <c r="F27" s="5">
         <v>0.60625000000000007</v>
       </c>
@@ -5350,7 +5386,9 @@
       <c r="J27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L27" s="2" t="s">
         <v>26</v>
       </c>
@@ -5369,6 +5407,9 @@
       <c r="D28">
         <v>9474.57</v>
       </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
       <c r="F28" s="5">
         <v>0.62708333333333333</v>
       </c>
@@ -5386,7 +5427,9 @@
       <c r="K28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">

--- a/matlab/Daten_FJ.XLSX
+++ b/matlab/Daten_FJ.XLSX
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente Florian Jacob OVGU\Masterarbeit\matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Florian_Jacob_OVGU\Masterarbeit\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>Cn [1/cm³]</t>
-  </si>
-  <si>
-    <t>MP1</t>
-  </si>
-  <si>
-    <t>MP2</t>
   </si>
   <si>
     <t>Cn:</t>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Hauptfilter</t>
+  </si>
+  <si>
+    <t>MP2 (06)</t>
+  </si>
+  <si>
+    <t>MP1 (07)</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MP1</c:v>
+                  <c:v>MP1 (07)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1981,7 +1981,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MP2</c:v>
+                  <c:v>MP2 (06)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4733,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,16 +4750,16 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4776,10 +4776,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -4797,10 +4797,10 @@
         <v>369.96</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4817,10 +4817,10 @@
         <v>465.22</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4882,13 +4882,13 @@
         <v>1930.5</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4905,13 +4905,13 @@
         <v>2490.2399999999998</v>
       </c>
       <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
         <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4928,13 +4928,13 @@
         <v>3756.76</v>
       </c>
       <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
         <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4951,13 +4951,13 @@
         <v>3986.53</v>
       </c>
       <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
         <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5030,25 +5030,25 @@
         <v>6371.03</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -5077,16 +5077,16 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M19" s="2"/>
     </row>
@@ -5115,16 +5115,16 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M20" s="2"/>
     </row>
@@ -5153,16 +5153,16 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M21" s="2"/>
     </row>
@@ -5191,16 +5191,16 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -5229,16 +5229,16 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M23" s="2"/>
     </row>
@@ -5267,16 +5267,16 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M24" s="2"/>
     </row>
@@ -5305,16 +5305,16 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M25" s="2"/>
     </row>
@@ -5343,16 +5343,16 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M26" s="2"/>
     </row>
@@ -5381,16 +5381,16 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M27" s="2"/>
     </row>
@@ -5419,16 +5419,16 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M28" s="2"/>
     </row>
